--- a/excel_files/products.xlsx
+++ b/excel_files/products.xlsx
@@ -1,33 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jscy\Desktop\bootcamp\Schedule-System\excel_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11760" windowWidth="20730" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="products" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>client_id</t>
+  </si>
+  <si>
+    <t>purchase_date</t>
+  </si>
+  <si>
+    <t>28/10/2019</t>
+  </si>
+  <si>
+    <t>29/10/2019</t>
+  </si>
+  <si>
+    <t>21/11/2019</t>
+  </si>
+  <si>
+    <t>Microwave</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>Cell Phone</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>1234A</t>
+  </si>
+  <si>
+    <t>2333B</t>
+  </si>
+  <si>
+    <t>3231R</t>
+  </si>
+  <si>
+    <t>3434T</t>
+  </si>
+  <si>
+    <t>3625N</t>
+  </si>
+  <si>
+    <t>1236G</t>
+  </si>
+  <si>
+    <t>1425F</t>
+  </si>
+  <si>
+    <t>1596D</t>
+  </si>
+  <si>
+    <t>9851A</t>
+  </si>
+  <si>
+    <t>2563S</t>
+  </si>
+  <si>
+    <t>1596G</t>
+  </si>
+  <si>
+    <t>2586S</t>
+  </si>
+  <si>
+    <t>2563D</t>
+  </si>
+  <si>
+    <t>5698W</t>
+  </si>
+  <si>
+    <t>2569A</t>
+  </si>
+  <si>
+    <t>2698C</t>
+  </si>
+  <si>
+    <t>1456M</t>
+  </si>
+  <si>
+    <t>1236Y</t>
+  </si>
+  <si>
+    <t>1254W</t>
+  </si>
+  <si>
+    <t>9612X</t>
+  </si>
+  <si>
+    <t>9854Q</t>
+  </si>
+  <si>
+    <t>9874L</t>
+  </si>
+  <si>
+    <t>6932J</t>
+  </si>
+  <si>
+    <t>9852F</t>
+  </si>
+  <si>
+    <t>6669R</t>
+  </si>
+  <si>
+    <t>Hair dryer</t>
+  </si>
+  <si>
+    <t>Fan</t>
+  </si>
+  <si>
+    <t>Blender</t>
+  </si>
+  <si>
+    <t>Oven</t>
+  </si>
+  <si>
+    <t>Freezer</t>
+  </si>
+  <si>
+    <t>Torch</t>
+  </si>
+  <si>
+    <t>Toaster</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -43,16 +187,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -311,257 +469,394 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="14.5703125"/>
-    <col customWidth="1" max="2" min="2" width="19"/>
-    <col customWidth="1" max="3" min="3" width="16.7109375"/>
-    <col customWidth="1" max="4" min="4" width="23.7109375"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>product_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>product_name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>client_id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>purchase_date</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1010101010</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>tv</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>123456789</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>202020125</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>mobile phone</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>987654321</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>43511</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>221525555</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>microwave</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>123456789</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>43588</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1111</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>gogo</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>28/10/2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1111</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>gogo</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>28/10/2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1111</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>gogo</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>28/10/2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1111</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>nancy</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>33344</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>28/10/2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1111</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>snhsxb</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>24567</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>29/10/2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>1111</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>21/11/2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1111</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>TESeee</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3433</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>21/11/2019</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12345</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>96325</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12347</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>32145</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12345</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>32146</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12345</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>32145</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12349</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>12345</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>96325</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12349</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12345</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>32145</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1">
+        <v>12347</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1">
+        <v>12348</v>
+      </c>
+      <c r="D18" s="2">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1">
+        <v>12349</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1">
+        <v>32145</v>
+      </c>
+      <c r="D20" s="2">
+        <v>43780</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1">
+        <v>32146</v>
+      </c>
+      <c r="D21" s="2">
+        <v>43785</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1">
+        <v>32149</v>
+      </c>
+      <c r="D22" s="2">
+        <v>43788</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1">
+        <v>65478</v>
+      </c>
+      <c r="D23" s="2">
+        <v>43788</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1">
+        <v>65421</v>
+      </c>
+      <c r="D24" s="2">
+        <v>43788</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="1">
+        <v>96325</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="1">
+        <v>96325</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel_files/products.xlsx
+++ b/excel_files/products.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jscy\Desktop\bootcamp\Schedule-System\excel_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -159,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -257,7 +252,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -292,7 +287,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -469,7 +464,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -479,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,136 +502,136 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1">
-        <v>12345</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>12348</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43770</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1">
-        <v>96325</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>12349</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43772</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1">
-        <v>12347</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>32145</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43780</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1">
-        <v>32145</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>32146</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43785</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1">
-        <v>12345</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
+        <v>32149</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43788</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1">
-        <v>32146</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
+        <v>65478</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43788</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1">
-        <v>12345</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
+        <v>65421</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43788</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1">
-        <v>32145</v>
+        <v>96325</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1">
-        <v>12349</v>
+        <v>96325</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>12345</v>
@@ -647,10 +642,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
         <v>96325</v>
@@ -661,13 +656,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>12349</v>
+        <v>12347</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>4</v>
@@ -675,187 +670,190 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
-        <v>12345</v>
+        <v>32145</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
-        <v>32145</v>
+        <v>12345</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1">
-        <v>123456</v>
+        <v>32146</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1">
-        <v>12347</v>
+        <v>12345</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1">
-        <v>12348</v>
-      </c>
-      <c r="D18" s="2">
-        <v>43770</v>
+        <v>12349</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1">
-        <v>12349</v>
-      </c>
-      <c r="D19" s="2">
-        <v>43772</v>
+        <v>12345</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1">
-        <v>32145</v>
-      </c>
-      <c r="D20" s="2">
-        <v>43780</v>
+        <v>96325</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1">
-        <v>32146</v>
-      </c>
-      <c r="D21" s="2">
-        <v>43785</v>
+        <v>12349</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1">
-        <v>32149</v>
-      </c>
-      <c r="D22" s="2">
-        <v>43788</v>
+        <v>32145</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1">
-        <v>65478</v>
-      </c>
-      <c r="D23" s="2">
-        <v>43788</v>
+        <v>12345</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1">
-        <v>65421</v>
-      </c>
-      <c r="D24" s="2">
-        <v>43788</v>
+        <v>32145</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1">
-        <v>96325</v>
+        <v>12346</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1">
-        <v>96325</v>
+        <v>12347</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D26">
+    <sortCondition ref="D2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/excel_files/products.xlsx
+++ b/excel_files/products.xlsx
@@ -464,7 +464,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -474,7 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -536,7 +536,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="1">
-        <v>32145</v>
+        <v>12345</v>
       </c>
       <c r="D4" s="2">
         <v>43780</v>
@@ -550,7 +550,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="1">
-        <v>32146</v>
+        <v>12346</v>
       </c>
       <c r="D5" s="2">
         <v>43785</v>
@@ -564,7 +564,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="1">
-        <v>32149</v>
+        <v>12347</v>
       </c>
       <c r="D6" s="2">
         <v>43788</v>
@@ -578,7 +578,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="1">
-        <v>65478</v>
+        <v>12345</v>
       </c>
       <c r="D7" s="2">
         <v>43788</v>
@@ -592,7 +592,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="1">
-        <v>65421</v>
+        <v>12345</v>
       </c>
       <c r="D8" s="2">
         <v>43788</v>
@@ -606,7 +606,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="1">
-        <v>96325</v>
+        <v>12345</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
@@ -620,7 +620,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="1">
-        <v>96325</v>
+        <v>12347</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>96325</v>
+        <v>12348</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>4</v>
@@ -662,7 +662,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>12347</v>
+        <v>12346</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>4</v>
@@ -676,7 +676,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="1">
-        <v>32145</v>
+        <v>12347</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>4</v>
@@ -704,7 +704,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="1">
-        <v>32146</v>
+        <v>12346</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>4</v>
@@ -732,7 +732,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="1">
-        <v>12349</v>
+        <v>12348</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>4</v>
@@ -760,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1">
-        <v>96325</v>
+        <v>12347</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>4</v>
@@ -774,7 +774,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="1">
-        <v>12349</v>
+        <v>12345</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>4</v>
@@ -788,7 +788,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="1">
-        <v>32145</v>
+        <v>12347</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>5</v>
@@ -816,7 +816,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="1">
-        <v>32145</v>
+        <v>12347</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>5</v>
